--- a/P5_02_plantests.xlsx
+++ b/P5_02_plantests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Formation Dev Web\XavierRobart_5_29052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E55D35-5342-41AA-91F7-0CED599156B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3749E55D-B249-4C96-99CB-DF384E8E35C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -38,13 +38,6 @@
   </si>
   <si>
     <t>Problème possible</t>
-  </si>
-  <si>
-    <t>index ,js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetchTeddies()
-</t>
   </si>
   <si>
     <r>
@@ -92,37 +85,6 @@
     <t>ne récupère pas les données de L’API, un message d’erreur apparaît dans la console.</t>
   </si>
   <si>
-    <t>showTeddies();</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">appeler la fonction et faire un </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>consol. Log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> pour vérifier que chaque élément à sa carte inclus dans le HTML
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ne récupère pas les données de L’API, ou l’emplacement stipuler pour l’affichage un message d’erreur apparaît dans la console.
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -145,33 +107,33 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Afficher tous les produits dans le HTML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Cette fonction récupère les produits de l’API et les incorpore à l’intérieur de la page HTML stipulé en arguments. elle se déclenche au chargement de la page.
+    <t xml:space="preserve">getArticles()
 </t>
-    </r>
   </si>
   <si>
-    <t>Ligne 4 à 10</t>
+    <t>Ligne 8 à 63</t>
   </si>
   <si>
-    <t>Ligne 13 à 31</t>
+    <t>product.js</t>
+  </si>
+  <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>Ligne 20 à 31</t>
+  </si>
+  <si>
+    <t>error404()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Ligne 69 à 101</t>
+  </si>
+  <si>
+    <t>addToCart()</t>
   </si>
 </sst>
 </file>
@@ -746,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1048567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -809,45 +771,51 @@
     </row>
     <row r="3" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
